--- a/friend2_R_maxmax.xlsx
+++ b/friend2_R_maxmax.xlsx
@@ -6,9 +6,48 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="f1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="f2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="f3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="f4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="f5" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V10</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -334,10 +373,1827 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="NA" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
